--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/RoadMap.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/RoadMap.xlsx
@@ -9,22 +9,19 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="37RqaPF9yEMVv1kImu8KS6O7501W1P4bHrFbUU+gzHU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="4ZAqrxHscbKPqmBX3mLM4IJaadGqUIwk6RwTh2ZNJmM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
-  <si>
-    <t xml:space="preserve">Fase1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fase2 </t>
-  </si>
-  <si>
-    <t>Fase3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+  <si>
+    <t xml:space="preserve">Semana </t>
+  </si>
+  <si>
+    <t>Semana</t>
   </si>
   <si>
     <t xml:space="preserve">Id </t>
@@ -257,9 +254,6 @@
     <t>APP de desarrollo</t>
   </si>
   <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t>Sprint 2</t>
   </si>
   <si>
@@ -269,7 +263,7 @@
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>Sprint 5</t>
+    <t>x</t>
   </si>
   <si>
     <t>SP1</t>
@@ -331,12 +325,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -443,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border/>
     <border>
       <left style="thin">
@@ -625,12 +619,41 @@
       </bottom>
     </border>
     <border>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left/>
@@ -638,66 +661,29 @@
       <top/>
       <bottom/>
     </border>
-    <border>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -725,23 +711,23 @@
     <xf borderId="8" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -749,23 +735,23 @@
     <xf borderId="16" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="9" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -781,40 +767,31 @@
     <xf borderId="23" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="26" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="13" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="29" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="30" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1074,94 +1051,94 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S1" s="4"/>
       <c r="T1" s="5"/>
     </row>
     <row r="2" ht="30.0" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AA2" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>28</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
@@ -1182,27 +1159,27 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V3" s="21"/>
       <c r="W3" s="21"/>
       <c r="X3" s="22"/>
       <c r="Y3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA3" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
       <c r="A4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -1225,21 +1202,21 @@
       <c r="U4" s="25"/>
       <c r="X4" s="26"/>
       <c r="Y4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA4" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -1262,21 +1239,21 @@
       <c r="U5" s="25"/>
       <c r="X5" s="26"/>
       <c r="Y5" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA5" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -1299,21 +1276,21 @@
       <c r="U6" s="25"/>
       <c r="X6" s="26"/>
       <c r="Y6" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA6" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -1336,21 +1313,21 @@
       <c r="U7" s="25"/>
       <c r="X7" s="26"/>
       <c r="Y7" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA7" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
       <c r="A8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>44</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -1373,21 +1350,21 @@
       <c r="U8" s="25"/>
       <c r="X8" s="26"/>
       <c r="Y8" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA8" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA8" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>46</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -1412,21 +1389,21 @@
       <c r="W9" s="30"/>
       <c r="X9" s="31"/>
       <c r="Y9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA9" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" ht="18.0" customHeight="1">
       <c r="A10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>48</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1447,27 +1424,27 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V10" s="35"/>
       <c r="W10" s="35"/>
       <c r="X10" s="36"/>
       <c r="Y10" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA10" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1490,21 +1467,21 @@
       <c r="U11" s="37"/>
       <c r="X11" s="26"/>
       <c r="Y11" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA11" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" ht="18.0" customHeight="1">
       <c r="A12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1527,21 +1504,21 @@
       <c r="U12" s="37"/>
       <c r="X12" s="26"/>
       <c r="Y12" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="AA12" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA12" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1564,21 +1541,21 @@
       <c r="U13" s="37"/>
       <c r="X13" s="26"/>
       <c r="Y13" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA13" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1601,21 +1578,21 @@
       <c r="U14" s="37"/>
       <c r="X14" s="26"/>
       <c r="Y14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z14" s="2" t="s">
+      <c r="AA14" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA14" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
       <c r="A15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>59</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1638,21 +1615,21 @@
       <c r="U15" s="37"/>
       <c r="X15" s="26"/>
       <c r="Y15" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA15" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA15" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1675,21 +1652,21 @@
       <c r="U16" s="37"/>
       <c r="X16" s="26"/>
       <c r="Y16" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA16" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA16" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
       <c r="A17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1712,21 +1689,21 @@
       <c r="U17" s="37"/>
       <c r="X17" s="26"/>
       <c r="Y17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="AA17" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA17" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" ht="18.0" customHeight="1">
       <c r="A18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>64</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>65</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1749,21 +1726,21 @@
       <c r="U18" s="37"/>
       <c r="X18" s="26"/>
       <c r="Y18" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA18" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA18" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" ht="18.0" customHeight="1">
       <c r="A19" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -1786,21 +1763,21 @@
       <c r="U19" s="37"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z19" s="2" t="s">
+      <c r="AA19" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA19" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
       <c r="A20" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1825,21 +1802,21 @@
       <c r="W20" s="41"/>
       <c r="X20" s="42"/>
       <c r="Y20" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA20" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="AA20" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" ht="28.5" customHeight="1">
       <c r="A21" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>72</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1847,13 +1824,13 @@
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
       <c r="H21" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K21" s="46"/>
       <c r="L21" s="46"/>
@@ -1866,28 +1843,28 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
       <c r="X21" s="36"/>
       <c r="Y21" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z21" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA21" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
+        <v>74</v>
+      </c>
+      <c r="AA21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
     </row>
     <row r="22" ht="30.75" customHeight="1">
-      <c r="A22" s="53"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1897,13 +1874,13 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
       <c r="J22" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L22" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
@@ -1915,17 +1892,19 @@
       <c r="T22" s="2"/>
       <c r="U22" s="37"/>
       <c r="X22" s="26"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
     </row>
     <row r="23" ht="27.75" customHeight="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1937,13 +1916,13 @@
       <c r="J23" s="46"/>
       <c r="K23" s="46"/>
       <c r="L23" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M23" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N23" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="46"/>
       <c r="P23" s="46"/>
@@ -1953,17 +1932,19 @@
       <c r="T23" s="2"/>
       <c r="U23" s="37"/>
       <c r="X23" s="26"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="53"/>
       <c r="B24" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1977,120 +1958,130 @@
       <c r="L24" s="46"/>
       <c r="M24" s="46"/>
       <c r="N24" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P24" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="47"/>
+        <v>72</v>
+      </c>
+      <c r="Q24" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="R24" s="54" t="s">
+        <v>78</v>
+      </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="37"/>
-      <c r="X24" s="26"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="42"/>
       <c r="Y24" s="53"/>
       <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
+      <c r="AA24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
     </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="38" t="s">
+    <row r="25" ht="82.5" customHeight="1">
+      <c r="A25" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="56" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q25" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="R25" s="55" t="s">
-        <v>73</v>
-      </c>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="57"/>
+      <c r="U25" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z25" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="67"/>
     </row>
-    <row r="26" ht="82.5" customHeight="1">
-      <c r="A26" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>82</v>
+    <row r="26" ht="29.25" customHeight="1">
+      <c r="A26" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="69"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z26" s="65" t="s">
-        <v>85</v>
+      <c r="U26" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="AA26" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="67"/>
-      <c r="AD26" s="67"/>
-      <c r="AE26" s="68"/>
-      <c r="AF26" s="69"/>
-      <c r="AG26" s="70"/>
+        <v>31</v>
+      </c>
+      <c r="AB26" s="71"/>
     </row>
-    <row r="27" ht="29.25" customHeight="1">
+    <row r="27" ht="20.25" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2107,31 +2098,26 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="72"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="36"/>
+      <c r="U27" s="37"/>
+      <c r="X27" s="26"/>
       <c r="Y27" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA27" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB27" s="74"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" ht="20.25" customHeight="1">
+    <row r="28" ht="29.25" customHeight="1">
       <c r="A28" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="56" t="s">
         <v>91</v>
       </c>
       <c r="C28" s="2"/>
@@ -2149,62 +2135,26 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="37"/>
-      <c r="X28" s="26"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="42"/>
       <c r="Y28" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA28" s="24" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="29" ht="29.25" customHeight="1">
-      <c r="A29" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA29" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="28.5" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="28.5" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
     <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
@@ -3174,22 +3124,20 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
-    <row r="1001" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X29"/>
-    <mergeCell ref="U21:X25"/>
-    <mergeCell ref="Y21:Y25"/>
-    <mergeCell ref="Z21:Z25"/>
-    <mergeCell ref="AA21:AA25"/>
+  <mergeCells count="12">
+    <mergeCell ref="U21:X24"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="Z21:Z24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X28"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U2:X2"/>
     <mergeCell ref="U3:X9"/>
-    <mergeCell ref="A21:A25"/>
     <mergeCell ref="U10:X20"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
